--- a/Sheets/raids.xlsx
+++ b/Sheets/raids.xlsx
@@ -50,6 +50,9 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="526. raid_event_41" sheetId="41" state="visible" r:id="rId41"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="549. raid_event_42" sheetId="42" state="visible" r:id="rId42"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="561. raid_event_43" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="571. raid_event_44" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="577. raid_event_45" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="588. raid_event_46" sheetId="46" state="visible" r:id="rId46"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001"/>
@@ -49910,6 +49913,3656 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Z60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>Name (JP)</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>JP</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Google translate</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Name (Manual)</t>
+        </is>
+      </c>
+      <c r="F1" s="4" t="inlineStr">
+        <is>
+          <t>Manual translation</t>
+        </is>
+      </c>
+      <c r="Z1" s="4" t="inlineStr">
+        <is>
+          <t>Dialogue ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>Scene 1:</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>prologue: ドラゴン狩りの巻</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>prologue: dragon hunting volume</t>
+        </is>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>157111</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>text:</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>アオ</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>えへへ、今日はお父さんと一緒に初詣！ お参りに～、シシりんのおみくじに～、 キリアさんの甘酒！　たくさん楽しもうね！</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>Hehe, today is my first visit to the shrine with my father! To pray, to Shishirin's fortune, Kiria's amazake! Let's have lots of fun!</t>
+        </is>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>41541</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>フジ</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>ゴハッ！？　は、はしゃぐアオも かわいいな……！　迷子にならないように、 ちゃんと俺のそばにいるんだぞ？</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>Goha! ? Ha, Ao is so cute! Please stay by my side so I don't get lost.</t>
+        </is>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>41542</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>アオ</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>うん！　それじゃあ、 まずはキリアさんの屋台で甘酒を飲もう！　 ほら、早く早く～！</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>Yeah! Well then, first let's drink amazake at Kiria's stall!　 Come on, hurry up!</t>
+        </is>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>41543</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" s="4" t="inlineStr"/>
+      <c r="D7" s="4" t="inlineStr"/>
+      <c r="Z7" s="4" t="n">
+        <v>41544</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>フジ</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>……おかしいな。 聞いた話じゃ、この辺りの屋台の並びに、 キリアの屋台もあるはずなんだが……。</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>……that's strange. From what I've heard, there should be a Kiria stall along with the stalls around here...</t>
+        </is>
+      </c>
+      <c r="Z8" s="4" t="n">
+        <v>41545</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>アオ</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>屋台も甘酒もないし、 あるのは瓦礫の山だけ…… キリアさんも、どこに行ったのかな？</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>There are no food stalls or amazake, only a pile of rubble... I wonder where Kiria-san went too?</t>
+        </is>
+      </c>
+      <c r="Z9" s="4" t="n">
+        <v>41546</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>彼岸絶勝斎</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>───キリアなら、もういないぞ。 『Ｓ・Ｇ・Ｄ（正月・ゴッド・ドラゴン）』 と融合した私が、倒したからな。</t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t>---If it's Kiria, she's gone. It was because I fused with ``S.G.D. (New Year God Dragon)'' that I defeated it.</t>
+        </is>
+      </c>
+      <c r="Z10" s="4" t="n">
+        <v>41547</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>フジ</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>師匠！？　 急に出て来て、なに物騒なこと言ってんだ。 アンタがキリアを倒す理由なんかねぇだろ？</t>
+        </is>
+      </c>
+      <c r="D11" s="4" t="inlineStr">
+        <is>
+          <t>Master! ? You suddenly came out and said something disturbing. There's no reason for you to defeat Kiria, right?</t>
+        </is>
+      </c>
+      <c r="Z11" s="4" t="n">
+        <v>41548</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>彼岸絶勝斎</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>『Ｓ・Ｇ・Ｄ』と融合した以上、 最強のドラゴンの座に君臨したくなってな。 ドラゴンにまつわる者を倒しているのだ。</t>
+        </is>
+      </c>
+      <c r="D12" s="4" t="inlineStr">
+        <is>
+          <t>Now that I've fused it with S.G.D., I want to reign as the strongest dragon. They are defeating those associated with dragons.</t>
+        </is>
+      </c>
+      <c r="Z12" s="4" t="n">
+        <v>41549</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>彼岸絶勝斎</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>最強のドラゴニュートと名高いキリアは 倒した……次はフジ！　日ノ本の 龍の血を引く、キサマが相手をしろ！</t>
+        </is>
+      </c>
+      <c r="D13" s="4" t="inlineStr">
+        <is>
+          <t>Killia, who is known as the strongest Dragon Newt, has been defeated...Fuji is next! Kisama, who has the blood of Hinomoto's dragons, is your opponent!</t>
+        </is>
+      </c>
+      <c r="Z13" s="4" t="n">
+        <v>41550</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>フジ</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>まさか、俺まで狩るつもりかよ！？ 冗談じゃねぇ、今日はアオとの───</t>
+        </is>
+      </c>
+      <c r="D14" s="4" t="inlineStr">
+        <is>
+          <t>No way, are you planning on hunting me too!? ? No kidding, today is with Ao───</t>
+        </is>
+      </c>
+      <c r="Z14" s="4" t="n">
+        <v>41551</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>彼岸絶勝斎</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>異論はないな？　あるなら殺す！ さぁ、最強のドラゴンの座をかけ、 私と死合うがいい！</t>
+        </is>
+      </c>
+      <c r="D15" s="4" t="inlineStr">
+        <is>
+          <t>Do you have any objection? If there is, I'll kill you! Now, fight for the title of the strongest dragon and die with me!</t>
+        </is>
+      </c>
+      <c r="Z15" s="4" t="n">
+        <v>41552</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>日本一ちゃん</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>───ちょーーーっと待ちなさい！ それ以上の破壊行為は許さないわ！ 凶悪指名手配犯、彼岸絶勝斎！</t>
+        </is>
+      </c>
+      <c r="D16" s="4" t="inlineStr">
+        <is>
+          <t>────Wait a moment! I will not tolerate any further acts of destruction! The brutal wanted criminal, Higan Zesshosai!</t>
+        </is>
+      </c>
+      <c r="Z16" s="4" t="n">
+        <v>41553</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" s="4" t="inlineStr"/>
+      <c r="D17" s="4" t="inlineStr"/>
+      <c r="Z17" s="4" t="n">
+        <v>41554</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>彼岸絶勝斎</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>……む？　そのツラ、見覚えがあるぞ。 有名な正義のヒーロー、日本一だな？ この私になんの用だ？</t>
+        </is>
+      </c>
+      <c r="D18" s="4" t="inlineStr">
+        <is>
+          <t>……nothing?　That bump looks familiar. Famous hero of justice, number one in Japan, right? What do you need from me?</t>
+        </is>
+      </c>
+      <c r="Z18" s="4" t="n">
+        <v>41555</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>日本一ちゃん</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">アンタを詐欺罪と器物損壊罪で処罰するわ！ 理由はもちろんわかってるわね？　</t>
+        </is>
+      </c>
+      <c r="D19" s="4" t="inlineStr">
+        <is>
+          <t>I will punish you for fraud and property damage! Of course you know the reason, right?</t>
+        </is>
+      </c>
+      <c r="Z19" s="4" t="n">
+        <v>41556</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>彼岸絶勝斎</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>……？ わからん。私が何かしたか？ なぜ罰せられねばならん？</t>
+        </is>
+      </c>
+      <c r="D20" s="4" t="inlineStr">
+        <is>
+          <t>...? I do not understand. what did I do? Why should I be punished?</t>
+        </is>
+      </c>
+      <c r="Z20" s="4" t="n">
+        <v>41557</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>日本一ちゃん</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>アンタが龍神のような姿でみんなを騙し、 この神社で暴れて、屋台を破壊したからよ！ 覚悟の準備をしておきなさい！！</t>
+        </is>
+      </c>
+      <c r="D21" s="4" t="inlineStr">
+        <is>
+          <t>It's because you fooled everyone by pretending to be a dragon god, went on a rampage at this shrine, and destroyed the food stalls! Get ready! !</t>
+        </is>
+      </c>
+      <c r="Z21" s="4" t="n">
+        <v>41558</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>フジ</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>やっぱり、あの瓦礫の山は屋台の残骸か。 キリアの屋台まで壊しやがって、 いくら師匠でも、さすがにやり過ぎだぞ。</t>
+        </is>
+      </c>
+      <c r="D22" s="4" t="inlineStr">
+        <is>
+          <t>After all, that pile of rubble is the remains of a food stall. Even destroying Kiria's stall was too much, even for a master.</t>
+        </is>
+      </c>
+      <c r="Z22" s="4" t="n">
+        <v>41559</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>彼岸絶勝斎</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>この彼岸絶勝斎に加減はない。常に全力だ。 さて、ヒーローの小娘も戦うというのなら、 私は最強のドラゴンとして───</t>
+        </is>
+      </c>
+      <c r="D23" s="4" t="inlineStr">
+        <is>
+          <t>There is no limit to this Higan Zesshosai. Always doing my best. Well, if the hero's daughter is also going to fight, then I will be the strongest dragon...</t>
+        </is>
+      </c>
+      <c r="Z23" s="4" t="n">
+        <v>41560</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>アオ</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>……ひどい、ひどいよ、ヒガンおばちゃん。 お父さんと一緒に屋台を回れるの、 楽しみにしてたのに、もう、台無し……。</t>
+        </is>
+      </c>
+      <c r="D24" s="4" t="inlineStr">
+        <is>
+          <t>...It's terrible, it's terrible, Aunt Higan. I was looking forward to visiting the stalls with my dad, but now it's all over.</t>
+        </is>
+      </c>
+      <c r="Z24" s="4" t="n">
+        <v>41561</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>彼岸絶勝斎</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>……ア、アオ？　なんだ、その顔は。 私はただ、ドラゴン狩りが目的なだけで…… その……悪気はなかった、というか……。</t>
+        </is>
+      </c>
+      <c r="D25" s="4" t="inlineStr">
+        <is>
+          <t>...A-Ao? What is that face? My only purpose was to hunt dragons... I didn't mean any harm, or rather...</t>
+        </is>
+      </c>
+      <c r="Z25" s="4" t="n">
+        <v>41562</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>アオ</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t>なら余計にダメ！　昔のアオよりヒドいよ！ 反省しないヒガンおばちゃんは、アオが、 グチャグチャにこらしめなきゃだよねぇ！？</t>
+        </is>
+      </c>
+      <c r="D26" s="4" t="inlineStr">
+        <is>
+          <t>Then it's even worse! It's worse than the old Ao! Ao has to make a mess of Aunt Higan who doesn't show any remorse! ?</t>
+        </is>
+      </c>
+      <c r="Z26" s="4" t="n">
+        <v>41563</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>フジ</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>ア、アオ、落ち着け！ お前が本気で暴れたら、神社が吹き飛ぶぞ！ 借金が増えて生活が苦しくなっちまう！</t>
+        </is>
+      </c>
+      <c r="D27" s="4" t="inlineStr">
+        <is>
+          <t>Ah, ao, calm down! If you really go wild, the shrine will be blown away! Debts increase and life becomes difficult!</t>
+        </is>
+      </c>
+      <c r="Z27" s="4" t="n">
+        <v>41564</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>日本一ちゃん</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t>いや借金とかそんな問題じゃないでしょ！？ とにかく、アオちゃんを止めるわよ！ 彼岸絶勝斎も元凶なんだから手伝ってよね！</t>
+        </is>
+      </c>
+      <c r="D28" s="4" t="inlineStr">
+        <is>
+          <t>No, it's not a problem of debt or anything like that! ? Anyway, I'll stop Ao-chan! Higan Zesshosai is also the culprit, so help him out!</t>
+        </is>
+      </c>
+      <c r="Z28" s="4" t="n">
+        <v>41565</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>彼岸絶勝斎</t>
+        </is>
+      </c>
+      <c r="C29" s="4" t="inlineStr">
+        <is>
+          <t>……わかっているとも。私も、 アオを傷つけたのは想定外だった。 家族の一人として、全力で止めて見せよう！</t>
+        </is>
+      </c>
+      <c r="D29" s="4" t="inlineStr">
+        <is>
+          <t>...Even though I understand. I also didn't expect to hurt Ao. As a member of the family, let's do everything in our power to stop it!</t>
+        </is>
+      </c>
+      <c r="Z29" s="4" t="n">
+        <v>41566</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="inlineStr">
+        <is>
+          <t>Scene 2:</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>ending: お年玉と借金との巻</t>
+        </is>
+      </c>
+      <c r="D31" s="4" t="inlineStr">
+        <is>
+          <t>ending: New Year's gift and debt</t>
+        </is>
+      </c>
+      <c r="Z31" s="4" t="n">
+        <v>157112</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="inlineStr">
+        <is>
+          <t>text:</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>フジ</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t>はぁ……はぁ……どうだ、アオ。 少しは落ち着いたか？</t>
+        </is>
+      </c>
+      <c r="D32" s="4" t="inlineStr">
+        <is>
+          <t>Sigh... Sigh... What do you think, Ao? Have you calmed down a little?</t>
+        </is>
+      </c>
+      <c r="Z32" s="4" t="n">
+        <v>41567</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t>アオ</t>
+        </is>
+      </c>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t>うん……迷惑かけてごめんなさい。 お父さん、ヒガンおばちゃん、 日本一ちゃん……。</t>
+        </is>
+      </c>
+      <c r="D33" s="4" t="inlineStr">
+        <is>
+          <t>Yeah...I'm sorry for bothering you. Dad, Aunt Higan, Nippon Ichi-chan...</t>
+        </is>
+      </c>
+      <c r="Z33" s="4" t="n">
+        <v>41568</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="4" t="inlineStr">
+        <is>
+          <t>フジ</t>
+        </is>
+      </c>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t>気にすんな。反省すべきなのは、 屋台を壊して初詣を台無しにした 師匠なんだからな。</t>
+        </is>
+      </c>
+      <c r="D34" s="4" t="inlineStr">
+        <is>
+          <t>Don `t worry. The person who should be remorseful is the master who destroyed the stall and ruined the New Year's visit.</t>
+        </is>
+      </c>
+      <c r="Z34" s="4" t="n">
+        <v>41569</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>彼岸絶勝斎</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>何を言う。確かに少々 暴れすぎたかもしれんが、この 彼岸絶勝斎に反省などという言葉は───</t>
+        </is>
+      </c>
+      <c r="D35" s="4" t="inlineStr">
+        <is>
+          <t>What do you say? It's true that I may have been a little too violent, but I don't think there's anything like remorse for this Higan Zesshosai...</t>
+        </is>
+      </c>
+      <c r="Z35" s="4" t="n">
+        <v>41570</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t>アオ</t>
+        </is>
+      </c>
+      <c r="C36" s="4" t="inlineStr">
+        <is>
+          <t>うぅ…………。</t>
+        </is>
+      </c>
+      <c r="D36" s="4" t="inlineStr">
+        <is>
+          <t>Ugh……….</t>
+        </is>
+      </c>
+      <c r="Z36" s="4" t="n">
+        <v>41571</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>彼岸絶勝斎</t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t>くっ……！？　そんな顔をするな！ わ……わかった！ 今回ばかりは、私が悪かった……！</t>
+        </is>
+      </c>
+      <c r="D37" s="4" t="inlineStr">
+        <is>
+          <t>Damn...! ? Don't make that face! I...I understand! This time it was my fault...!</t>
+        </is>
+      </c>
+      <c r="Z37" s="4" t="n">
+        <v>41572</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>フジ</t>
+        </is>
+      </c>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t>し、師匠が素直に謝っただと！？ おいおい、明日は雪どころか、 槍が降るんじゃねぇのか！？</t>
+        </is>
+      </c>
+      <c r="D38" s="4" t="inlineStr">
+        <is>
+          <t>Well, my master sincerely apologized! ? Hey, it's not only going to snow tomorrow, it's going to rain spears! ?</t>
+        </is>
+      </c>
+      <c r="Z38" s="4" t="n">
+        <v>41573</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>彼岸絶勝斎</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>黙れ！　尻に槍をブチ込むぞ！ 私は泣く子供が苦手なんだ……！</t>
+        </is>
+      </c>
+      <c r="D39" s="4" t="inlineStr">
+        <is>
+          <t>shut up! I'll put a spear in your ass! I don't like crying children...!</t>
+        </is>
+      </c>
+      <c r="Z39" s="4" t="n">
+        <v>41574</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>彼岸絶勝斎</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>アオ、お年玉をやるから泣くのをやめろ。 屋台を回れなかった分、フジとどこかへ 遊びに行くのに使うといい。</t>
+        </is>
+      </c>
+      <c r="D40" s="4" t="inlineStr">
+        <is>
+          <t>Ao, stop crying because I'll give you a New Year's gift. You can use it to go somewhere with Fuji to make up for not being able to visit the food stalls.</t>
+        </is>
+      </c>
+      <c r="Z40" s="4" t="n">
+        <v>41575</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>アオ</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>え……？　こんなに、いいの……？ ありがとう……ヒガンおばちゃん！</t>
+        </is>
+      </c>
+      <c r="D41" s="4" t="inlineStr">
+        <is>
+          <t>picture……? Is it this good...? Thank you...Higan Auntie!</t>
+        </is>
+      </c>
+      <c r="Z41" s="4" t="n">
+        <v>41576</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" s="4" t="inlineStr">
+        <is>
+          <t>フジ</t>
+        </is>
+      </c>
+      <c r="C42" s="4" t="inlineStr">
+        <is>
+          <t>……素直に謝った上に、お年玉まで。 あの傍若無人な師匠にも、 まだ良心ってもんが残ってたってことか。</t>
+        </is>
+      </c>
+      <c r="D42" s="4" t="inlineStr">
+        <is>
+          <t>...He not only apologized sincerely, but even gave him a New Year's gift. Does that mean that that reckless master still had some conscience left in him?</t>
+        </is>
+      </c>
+      <c r="Z42" s="4" t="n">
+        <v>41577</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t>日本一ちゃん</t>
+        </is>
+      </c>
+      <c r="C43" s="4" t="inlineStr">
+        <is>
+          <t>そうねぇ……。泣きそうな子供相手に あたふたしてる姿を見てると、 改心の余地があるのかもしれないわね。</t>
+        </is>
+      </c>
+      <c r="D43" s="4" t="inlineStr">
+        <is>
+          <t>let me see……. Seeing her flustered around a crying child, I think there might be room for a change of heart.</t>
+        </is>
+      </c>
+      <c r="Z43" s="4" t="n">
+        <v>41578</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" s="4" t="inlineStr">
+        <is>
+          <t>フジ</t>
+        </is>
+      </c>
+      <c r="C44" s="4" t="inlineStr">
+        <is>
+          <t>それにしても、くたびれたな。 初詣の前にどこかで一息入れるか……。</t>
+        </is>
+      </c>
+      <c r="D44" s="4" t="inlineStr">
+        <is>
+          <t>Still, I'm exhausted. Let's take a breather somewhere before the New Year's visit...</t>
+        </is>
+      </c>
+      <c r="Z44" s="4" t="n">
+        <v>41579</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" s="4" t="inlineStr">
+        <is>
+          <t>キリア</t>
+        </is>
+      </c>
+      <c r="C45" s="4" t="inlineStr">
+        <is>
+          <t>───ならば、滋養強壮に効果抜群、 極甘酒で一息つくのはどうだ？</t>
+        </is>
+      </c>
+      <c r="D45" s="4" t="inlineStr">
+        <is>
+          <t>────In that case, why not take a break with some super sweet sake, which is highly effective for nourishing and toning?</t>
+        </is>
+      </c>
+      <c r="Z45" s="4" t="n">
+        <v>41580</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" s="4" t="inlineStr">
+        <is>
+          <t>フジ</t>
+        </is>
+      </c>
+      <c r="C46" s="4" t="inlineStr">
+        <is>
+          <t>ああ、もら……って、キリア！？ お前、師匠に倒されたはずじゃ……！？</t>
+        </is>
+      </c>
+      <c r="D46" s="4" t="inlineStr">
+        <is>
+          <t>Oh, here we go… Kiria! ? You should have been defeated by your master...! ?</t>
+        </is>
+      </c>
+      <c r="Z46" s="4" t="n">
+        <v>41581</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" s="4" t="inlineStr">
+        <is>
+          <t>キリア</t>
+        </is>
+      </c>
+      <c r="C47" s="4" t="inlineStr">
+        <is>
+          <t>極甘酒のおかげで傷はすぐに癒えた。 新たな屋台を用意するために、 少々この場を離れていただけだ。</t>
+        </is>
+      </c>
+      <c r="D47" s="4" t="inlineStr">
+        <is>
+          <t>Thanks to the extremely sweet sake, the wound healed quickly. I just left this place for a while to prepare a new stall.</t>
+        </is>
+      </c>
+      <c r="Z47" s="4" t="n">
+        <v>41582</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" s="4" t="inlineStr">
+        <is>
+          <t>セラフィーヌ</t>
+        </is>
+      </c>
+      <c r="C48" s="4" t="inlineStr">
+        <is>
+          <t>オホホホホホ！　ワタクシの財力で、 壊れた屋台はすぐに修復いたしましたわ！ これで、すべて元通りでしてよ！</t>
+        </is>
+      </c>
+      <c r="D48" s="4" t="inlineStr">
+        <is>
+          <t>Ohohohohoho! With my financial resources, I quickly repaired the broken stall! Now everything is back to normal!</t>
+        </is>
+      </c>
+      <c r="Z48" s="4" t="n">
+        <v>41583</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" s="4" t="inlineStr">
+        <is>
+          <t>リーゼロッタ</t>
+        </is>
+      </c>
+      <c r="C49" s="4" t="inlineStr">
+        <is>
+          <t>極甘酒も新しく持ってきたから、 すぐにでも屋台を再開できるよ。 さっそく、一杯いかが？</t>
+        </is>
+      </c>
+      <c r="D49" s="4" t="inlineStr">
+        <is>
+          <t>I've brought some new sweet sake, so I can reopen the stall right away. Would you like a drink now?</t>
+        </is>
+      </c>
+      <c r="Z49" s="4" t="n">
+        <v>41584</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" s="4" t="inlineStr">
+        <is>
+          <t>アオ</t>
+        </is>
+      </c>
+      <c r="C50" s="4" t="inlineStr">
+        <is>
+          <t>本当！？　 それじゃあ……甘酒くーださーいっ！</t>
+        </is>
+      </c>
+      <c r="D50" s="4" t="inlineStr">
+        <is>
+          <t>TRUE! ?　 Well then... I'm going to have amazake!</t>
+        </is>
+      </c>
+      <c r="Z50" s="4" t="n">
+        <v>41585</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" s="4" t="inlineStr"/>
+      <c r="D51" s="4" t="inlineStr"/>
+      <c r="Z51" s="4" t="n">
+        <v>41586</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" s="4" t="inlineStr">
+        <is>
+          <t>フジ</t>
+        </is>
+      </c>
+      <c r="C52" s="4" t="inlineStr">
+        <is>
+          <t>……なぁ、日本一。 屋台も再建したことだし、今日のところは、 師匠を見逃しちゃもらえねぇか？</t>
+        </is>
+      </c>
+      <c r="D52" s="4" t="inlineStr">
+        <is>
+          <t>...Hey, number one in Japan. The food stall has also been rebuilt, so for today, I hope you won't miss my master.</t>
+        </is>
+      </c>
+      <c r="Z52" s="4" t="n">
+        <v>41587</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" s="4" t="inlineStr">
+        <is>
+          <t>日本一ちゃん</t>
+        </is>
+      </c>
+      <c r="C53" s="4" t="inlineStr">
+        <is>
+          <t>そうね。反省もしているみたいだし、 今回だけは見逃してあげるわ。 ……ただし、これは受け取ってもらうけど。</t>
+        </is>
+      </c>
+      <c r="D53" s="4" t="inlineStr">
+        <is>
+          <t>That's right. He seems to be remorseful, so I'll let him pass this one time. ...However, I'll ask you to accept this.</t>
+        </is>
+      </c>
+      <c r="Z53" s="4" t="n">
+        <v>41588</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" s="4" t="inlineStr">
+        <is>
+          <t>フジ</t>
+        </is>
+      </c>
+      <c r="C54" s="4" t="inlineStr">
+        <is>
+          <t>あん？ なんだよ、この紙束は……？</t>
+        </is>
+      </c>
+      <c r="D54" s="4" t="inlineStr">
+        <is>
+          <t>bean paste? What is this bundle of paper...?</t>
+        </is>
+      </c>
+      <c r="Z54" s="4" t="n">
+        <v>41589</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="4" t="inlineStr">
+        <is>
+          <t>日本一ちゃん</t>
+        </is>
+      </c>
+      <c r="C55" s="4" t="inlineStr">
+        <is>
+          <t>彼岸絶勝斎が壊した屋台の修繕費の請求書。 罪とか反省とか関係なく、 払うべきものは、払ってもらわないとね。</t>
+        </is>
+      </c>
+      <c r="D55" s="4" t="inlineStr">
+        <is>
+          <t>A bill for the repair costs of the stall that Higan Zesshosai destroyed. Regardless of guilt or remorse, you have to pay what you have to pay.</t>
+        </is>
+      </c>
+      <c r="Z55" s="4" t="n">
+        <v>41590</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" s="4" t="inlineStr">
+        <is>
+          <t>フジ</t>
+        </is>
+      </c>
+      <c r="C56" s="4" t="inlineStr">
+        <is>
+          <t>なんで俺に渡すんだよ！？ おい、師匠！　どこに行きやがった！？ アンタ宛の請求書を受け取りやがれ！！</t>
+        </is>
+      </c>
+      <c r="D56" s="4" t="inlineStr">
+        <is>
+          <t>Why are you giving it to me? ? Hey, master! Where did it go! ? Pick up the bill for you! !</t>
+        </is>
+      </c>
+      <c r="Z56" s="4" t="n">
+        <v>41591</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" s="4" t="inlineStr">
+        <is>
+          <t>アオ</t>
+        </is>
+      </c>
+      <c r="C57" s="4" t="inlineStr">
+        <is>
+          <t>ヒガンおばちゃんなら、 アオにお年玉くれたあと、 修行に行くって、どこかに飛んでったよ？</t>
+        </is>
+      </c>
+      <c r="D57" s="4" t="inlineStr">
+        <is>
+          <t>If it was Aunt Higan, after giving Ao a New Year's gift, she would fly somewhere to go to training, right?</t>
+        </is>
+      </c>
+      <c r="Z57" s="4" t="n">
+        <v>41592</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" s="4" t="inlineStr">
+        <is>
+          <t>フジ</t>
+        </is>
+      </c>
+      <c r="C58" s="4" t="inlineStr">
+        <is>
+          <t>なんだと！？　 じゃあ、この修繕費は───</t>
+        </is>
+      </c>
+      <c r="D58" s="4" t="inlineStr">
+        <is>
+          <t>what! ?　Then, what is the cost of this repair───</t>
+        </is>
+      </c>
+      <c r="Z58" s="4" t="n">
+        <v>41593</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" s="4" t="inlineStr">
+        <is>
+          <t>日本一ちゃん</t>
+        </is>
+      </c>
+      <c r="C59" s="4" t="inlineStr">
+        <is>
+          <t>弟子のアンタに払ってもらうしかないわね。 がんばって！　愛と勇気でなんとかなるわ！</t>
+        </is>
+      </c>
+      <c r="D59" s="4" t="inlineStr">
+        <is>
+          <t>I have no choice but to have my disciple, you, pay for it. go for it! With love and courage, we can manage!</t>
+        </is>
+      </c>
+      <c r="Z59" s="4" t="n">
+        <v>41594</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" s="4" t="inlineStr">
+        <is>
+          <t>フジ</t>
+        </is>
+      </c>
+      <c r="C60" s="4" t="inlineStr">
+        <is>
+          <t>愛と勇気で借金が減るかッ！ どこ行きやがった、バカ師匠ぉーーー！！</t>
+        </is>
+      </c>
+      <c r="D60" s="4" t="inlineStr">
+        <is>
+          <t>Will love and courage reduce debt? Where did you go, you idiot? !</t>
+        </is>
+      </c>
+      <c r="Z60" s="4" t="n">
+        <v>41595</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Z60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>Name (JP)</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>JP</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Google translate</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Name (Manual)</t>
+        </is>
+      </c>
+      <c r="F1" s="4" t="inlineStr">
+        <is>
+          <t>Manual translation</t>
+        </is>
+      </c>
+      <c r="Z1" s="4" t="inlineStr">
+        <is>
+          <t>Dialogue ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>Scene 1:</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>prologue: 預言者プラムと黄色い果実の巻</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>prologue: Prophet Plum and Yellow Fruit Volume</t>
+        </is>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>143311</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>text:</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>エトナ</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>フフフ～ン♪ 今日は久々のスイーツ巡り～！ アルティナ、もう来てるかしら？</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>Fufufu~♪ Today we went on a sweets tour for the first time in a while! Altina, are you here yet?</t>
+        </is>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>35719</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>プリニー</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　　アルティナ様ーーー！！ 　　次はオレを椅子にして 　　ほしいッスーーー！！</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>Altina-sama! ! Next time, I want her to use me as a chair! !</t>
+        </is>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>35720</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>エトナ</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>あら？　騒がしいわね。 一体、向こうで何が……。</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>fault? It's noisy. What on earth is going on over there...?</t>
+        </is>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>35721</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>魔王アルティナ</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>いま座ってるゴミむしに飽きたら、 座ってあげますわ。それまで虫らしく、 這いつくばってお待ちなさい。</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>If you get tired of the garbage bug you're sitting on, I'll sit down with you. Until then, just crawl like an insect and wait.</t>
+        </is>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>35722</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>エトナ</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>あれは……アルティナ！？ でも、優しいあの子がプリニーを 椅子にするなんて、そんなはず……。</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>That's... Altina! ? But that kind child would use Prinny as a chair...</t>
+        </is>
+      </c>
+      <c r="Z8" s="4" t="n">
+        <v>35723</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>プラム</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>ふふっ、やはり予想通りの展開ね。</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>Hehe, it unfolded as expected.</t>
+        </is>
+      </c>
+      <c r="Z9" s="4" t="n">
+        <v>35724</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>【予言者プラム】 未来を見通す力があるという、予言者。 天才的な頭脳と魔力を持つ才女であり、 ２歳にして、父親の魔界を奪い取った。 魔王としては新米だが、その才能により 他の魔王からも一目置かれている。 趣味は気に入ったオモチャが、 運命に翻弄される様を 観察することらしい。</t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t>[Prophet Plum] A prophet who is said to have the power to see into the future. She is a talented girl with a genius mind and magical power, and at the age of two, she usurped her father's demon world. Although she is a newbie as a demon lord, other demon lords respect her because of her talent. Her hobby seems to be observing how her favorite toys are at the mercy of fate.</t>
+        </is>
+      </c>
+      <c r="Z10" s="4" t="n">
+        <v>35725</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>エトナ</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>あんたは……プラム！？ また何か企んでんの？</t>
+        </is>
+      </c>
+      <c r="D11" s="4" t="inlineStr">
+        <is>
+          <t>You are...Plum! ? Are you planning something else?</t>
+        </is>
+      </c>
+      <c r="Z11" s="4" t="n">
+        <v>35726</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>プラム</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>もちろん。 でないと、あなたの前に姿を現さないわ。</t>
+        </is>
+      </c>
+      <c r="D12" s="4" t="inlineStr">
+        <is>
+          <t>of course. Otherwise, I won't appear in front of you.</t>
+        </is>
+      </c>
+      <c r="Z12" s="4" t="n">
+        <v>35727</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>エトナ</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>相変わらず胡散臭いわね。 それで、あんたはアルティナの異変に ついて、何か知ってるの？</t>
+        </is>
+      </c>
+      <c r="D13" s="4" t="inlineStr">
+        <is>
+          <t>It still smells shady. So, do you know anything about Altina's strange behavior?</t>
+        </is>
+      </c>
+      <c r="Z13" s="4" t="n">
+        <v>35728</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>プラム</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>ええ。ギグという異世界の住民に 邪悪な魂を入れられた後遺症で、 アルティナは暴走しているのよ。</t>
+        </is>
+      </c>
+      <c r="D14" s="4" t="inlineStr">
+        <is>
+          <t>Yeah. Altina is running out of control due to the aftereffects of having an evil soul put into her by a resident of another world called Gig.</t>
+        </is>
+      </c>
+      <c r="Z14" s="4" t="n">
+        <v>35729</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>プラム</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>さて、ここからが本題。 この事態を解決するアイテムが あるのだけど、必要かしら？</t>
+        </is>
+      </c>
+      <c r="D15" s="4" t="inlineStr">
+        <is>
+          <t>Now, here's the main topic. He has an item that can solve this situation, but is it necessary?</t>
+        </is>
+      </c>
+      <c r="Z15" s="4" t="n">
+        <v>35730</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>エトナ</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>……どうせ、アイテムを渡す代わりに、 何か条件を呑めって言うんでしょ？ 呑むから早く寄越しなさい。</t>
+        </is>
+      </c>
+      <c r="D16" s="4" t="inlineStr">
+        <is>
+          <t>...Anyway, in exchange for handing over the item, you're asking me to accept some conditions, right? I'm going to drink, so please drop by quickly.</t>
+        </is>
+      </c>
+      <c r="Z16" s="4" t="n">
+        <v>35731</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>プラム</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>察しが良くて助かるわ。 ならお代として、魔神エトナ、 あなたの爪を寄越しなさい。</t>
+        </is>
+      </c>
+      <c r="D17" s="4" t="inlineStr">
+        <is>
+          <t>You have good insight and are helpful. In return, please give me your nails, demon Etna.</t>
+        </is>
+      </c>
+      <c r="Z17" s="4" t="n">
+        <v>35732</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>エトナ</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>あたしの爪ぇ？　 …………まぁいいわ。 ほら、受け取りなさい。</t>
+        </is>
+      </c>
+      <c r="D18" s="4" t="inlineStr">
+        <is>
+          <t>My nails? ……Well, that’s fine. Here, take it.</t>
+        </is>
+      </c>
+      <c r="Z18" s="4" t="n">
+        <v>35733</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>プラム</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>ふふっ、確かに受け取ったわ。 これで新たな魔法の研究が捗るわね。 さて……これが、お望みのアイテムよ。</t>
+        </is>
+      </c>
+      <c r="D19" s="4" t="inlineStr">
+        <is>
+          <t>Hehe, I certainly received it. This will help me research new magic. Now...this is the item you want.</t>
+        </is>
+      </c>
+      <c r="Z19" s="4" t="n">
+        <v>35734</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>エトナ</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>何これ？　黄色い果実？ こんなもので、解決するわけないでしょ！ ダマしたわね！？</t>
+        </is>
+      </c>
+      <c r="D20" s="4" t="inlineStr">
+        <is>
+          <t>What's this? A yellow fruit? There's no way this can be solved! It was a mistake! ?</t>
+        </is>
+      </c>
+      <c r="Z20" s="4" t="n">
+        <v>35735</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>プラム</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>ダマしてなんていないわ。 もうすぐ、解決策が来るもの。</t>
+        </is>
+      </c>
+      <c r="D21" s="4" t="inlineStr">
+        <is>
+          <t>I'm not confused. A solution is coming soon.</t>
+        </is>
+      </c>
+      <c r="Z21" s="4" t="n">
+        <v>35736</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>ギグ</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>───おい！　この匂い……！ やっぱりホタポタかよ！ なんで魔界にありやがる！？</t>
+        </is>
+      </c>
+      <c r="D22" s="4" t="inlineStr">
+        <is>
+          <t>────Hey! This smell...! After all, it's hotapota! Why is it in the demon world? ?</t>
+        </is>
+      </c>
+      <c r="Z22" s="4" t="n">
+        <v>35737</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>エトナ</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>うわっ！？　誰よ！？ ……まさか、アルティナを 助ける解決策って、あんた？</t>
+        </is>
+      </c>
+      <c r="D23" s="4" t="inlineStr">
+        <is>
+          <t>Wow! ? Who is it? ? ...By any chance, are you the one who has the solution to help Altina?</t>
+        </is>
+      </c>
+      <c r="Z23" s="4" t="n">
+        <v>35738</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>ギグ</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>アルティナ……？　ああ、アイツは、 オレが暴走させた天使女じゃねぇかよ。 なんでまだ暴走してやがる？</t>
+        </is>
+      </c>
+      <c r="D24" s="4" t="inlineStr">
+        <is>
+          <t>Altina...? Ah, isn't she the angel woman that I let go wild? Why are you still running wild?</t>
+        </is>
+      </c>
+      <c r="Z24" s="4" t="n">
+        <v>35739</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>プラム</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>あなたは、すべての邪悪な魂を回収した つもりだったけど、取り逃しがあったのよ。 意外と、詰めが甘い破壊神さまだこと。</t>
+        </is>
+      </c>
+      <c r="D25" s="4" t="inlineStr">
+        <is>
+          <t>You thought you had collected all the evil souls, but you missed something. Surprisingly, he is a God of Destruction who is easygoing.</t>
+        </is>
+      </c>
+      <c r="Z25" s="4" t="n">
+        <v>35740</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>ギグ</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t>……なんだと？　 チッ、オレに操られていた魂の分際で 勝手に暴れるたぁ……気に食わねぇなァ！</t>
+        </is>
+      </c>
+      <c r="D26" s="4" t="inlineStr">
+        <is>
+          <t>……what?　 Tsk, the soul that was being controlled by me is about to go wild on its own...I don't like it!</t>
+        </is>
+      </c>
+      <c r="Z26" s="4" t="n">
+        <v>35741</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>ギグ</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>おい、赤髪の女！　 ホタポタを寄越すなら特別に、 あの女を正気に戻すのを、手伝ってやんぜ！</t>
+        </is>
+      </c>
+      <c r="D27" s="4" t="inlineStr">
+        <is>
+          <t>Hey, red-haired woman! If you're going to send Hotapota, please help bring that woman back to her senses!</t>
+        </is>
+      </c>
+      <c r="Z27" s="4" t="n">
+        <v>35742</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>エトナ</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t>マジ！？　じゃあ、よろしく頼むわ！ その代わり、ちゃんと元に戻るまで、 奴隷のように手伝いなさいよ！</t>
+        </is>
+      </c>
+      <c r="D28" s="4" t="inlineStr">
+        <is>
+          <t>Really! ? Well then, please help me! Instead, help me like a slave until I get back to normal!</t>
+        </is>
+      </c>
+      <c r="Z28" s="4" t="n">
+        <v>35743</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="inlineStr">
+        <is>
+          <t>Scene 2:</t>
+        </is>
+      </c>
+      <c r="C30" s="4" t="inlineStr">
+        <is>
+          <t>ending: ギグのお気に入りの巻</t>
+        </is>
+      </c>
+      <c r="D30" s="4" t="inlineStr">
+        <is>
+          <t>ending: Favorite episode of the gig</t>
+        </is>
+      </c>
+      <c r="Z30" s="4" t="n">
+        <v>143312</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="inlineStr">
+        <is>
+          <t>text:</t>
+        </is>
+      </c>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>ギグ</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>この女に残っていた、 邪悪な魂は、全部回収したぞ。 これでどうだ？</t>
+        </is>
+      </c>
+      <c r="D31" s="4" t="inlineStr">
+        <is>
+          <t>I have recovered all the evil souls that remained in this woman. How about this?</t>
+        </is>
+      </c>
+      <c r="Z31" s="4" t="n">
+        <v>35744</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>アルティナ</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t>……ええ、もう大丈夫ですわ。 ありがとうございます。</t>
+        </is>
+      </c>
+      <c r="D32" s="4" t="inlineStr">
+        <is>
+          <t>...Yeah, it's okay now. thank you.</t>
+        </is>
+      </c>
+      <c r="Z32" s="4" t="n">
+        <v>35745</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t>ギグ</t>
+        </is>
+      </c>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t>……チッ。テメェ、元凶に感謝するとか、 頭がブッ壊れてんじゃねぇーか？ 相棒を思い出す甘ったるさだぜ。</t>
+        </is>
+      </c>
+      <c r="D33" s="4" t="inlineStr">
+        <is>
+          <t>...Tsk. Teme, don't you think your head is completely broken by thanking the culprit? It's a sweet reminder of my buddy.</t>
+        </is>
+      </c>
+      <c r="Z33" s="4" t="n">
+        <v>35746</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="4" t="inlineStr">
+        <is>
+          <t>ギグ</t>
+        </is>
+      </c>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t>ま、いいや。それよりも、赤髪の女！ さっさと、ホタポタを寄越せ！</t>
+        </is>
+      </c>
+      <c r="D34" s="4" t="inlineStr">
+        <is>
+          <t>Well, whatever. More importantly, the red-haired woman! Hurry up and send the hotapota!</t>
+        </is>
+      </c>
+      <c r="Z34" s="4" t="n">
+        <v>35747</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>エトナ</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>はいはい。こんなんでよければどーぞ。</t>
+        </is>
+      </c>
+      <c r="D35" s="4" t="inlineStr">
+        <is>
+          <t>Yes, yes. If you're okay with this, go ahead.</t>
+        </is>
+      </c>
+      <c r="Z35" s="4" t="n">
+        <v>35748</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t>ギグ</t>
+        </is>
+      </c>
+      <c r="C36" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 　　もぐもぐ……むっ！？ 　な、なんじゃこりゃあ！？</t>
+        </is>
+      </c>
+      <c r="D36" s="4" t="inlineStr">
+        <is>
+          <t>Mumble... Mmm! ?　What is this? ?</t>
+        </is>
+      </c>
+      <c r="Z36" s="4" t="n">
+        <v>35749</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>アルティナ</t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t>ど、どうかされましたの！？ まさか、エトナさんが毒でも……！？</t>
+        </is>
+      </c>
+      <c r="D37" s="4" t="inlineStr">
+        <is>
+          <t>What happened? ? No way, Etna-san is poisonous...! ?</t>
+        </is>
+      </c>
+      <c r="Z37" s="4" t="n">
+        <v>35750</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>エトナ</t>
+        </is>
+      </c>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t>失礼ね！　そんなことしないわよ！ 腐ってたんじゃない？</t>
+        </is>
+      </c>
+      <c r="D38" s="4" t="inlineStr">
+        <is>
+          <t>Excuse me!　I won't do that! Wasn't it rotten?</t>
+        </is>
+      </c>
+      <c r="Z38" s="4" t="n">
+        <v>35751</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>ギグ</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>ち、ちげーよ！　うめぇ！ うますぎるんだ！！</t>
+        </is>
+      </c>
+      <c r="D39" s="4" t="inlineStr">
+        <is>
+          <t>Hey, hey!　Wow! It's too good! !</t>
+        </is>
+      </c>
+      <c r="Z39" s="4" t="n">
+        <v>35752</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>ギグ</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>相棒の体で感じるんじゃなく、 実体を通して食べるだけで、 こんなにもうめぇのか！？</t>
+        </is>
+      </c>
+      <c r="D40" s="4" t="inlineStr">
+        <is>
+          <t>Don't feel it with your buddy's body, just eat it through his body, and you'll be so happy! ?</t>
+        </is>
+      </c>
+      <c r="Z40" s="4" t="n">
+        <v>35753</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>ギグ</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>おい、赤髪の女！　 もっとホタポタはねぇのか！？</t>
+        </is>
+      </c>
+      <c r="D41" s="4" t="inlineStr">
+        <is>
+          <t>Hey, red-haired woman!　 Isn't there more scallops? ?</t>
+        </is>
+      </c>
+      <c r="Z41" s="4" t="n">
+        <v>35754</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" s="4" t="inlineStr">
+        <is>
+          <t>エトナ</t>
+        </is>
+      </c>
+      <c r="C42" s="4" t="inlineStr">
+        <is>
+          <t>あたしは持ってないわよ。 詳しいことは、 あそこにいるプラムに、聞いてちょうだい。</t>
+        </is>
+      </c>
+      <c r="D42" s="4" t="inlineStr">
+        <is>
+          <t>I don't have one. For more information, please ask Plum over there.</t>
+        </is>
+      </c>
+      <c r="Z42" s="4" t="n">
+        <v>35755</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t>プラム</t>
+        </is>
+      </c>
+      <c r="C43" s="4" t="inlineStr">
+        <is>
+          <t>私も持ってないわ。 さっきので最後よ。</t>
+        </is>
+      </c>
+      <c r="D43" s="4" t="inlineStr">
+        <is>
+          <t>I don't have one either. This is the last one.</t>
+        </is>
+      </c>
+      <c r="Z43" s="4" t="n">
+        <v>35756</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" s="4" t="inlineStr">
+        <is>
+          <t>ギグ</t>
+        </is>
+      </c>
+      <c r="C44" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 　な、なにぃぃぃいいい！？ 　　もう、あんなにうめぇ 　ホタポタを食えねぇのか！？</t>
+        </is>
+      </c>
+      <c r="D44" s="4" t="inlineStr">
+        <is>
+          <t>N-niiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiii! ? She can't eat scallops that delicious anymore! ?</t>
+        </is>
+      </c>
+      <c r="Z44" s="4" t="n">
+        <v>35757</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" s="4" t="inlineStr">
+        <is>
+          <t>エトナ</t>
+        </is>
+      </c>
+      <c r="C45" s="4" t="inlineStr">
+        <is>
+          <t>そんなにショックなの？</t>
+        </is>
+      </c>
+      <c r="D45" s="4" t="inlineStr">
+        <is>
+          <t>Are you that shocked?</t>
+        </is>
+      </c>
+      <c r="Z45" s="4" t="n">
+        <v>35758</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" s="4" t="inlineStr">
+        <is>
+          <t>ギグ</t>
+        </is>
+      </c>
+      <c r="C46" s="4" t="inlineStr">
+        <is>
+          <t>当たり前だ！　あんなにうまいホタポタを 食っちまったら……実体のない元の世界じゃ １００万個食っても満足できねぇよ！</t>
+        </is>
+      </c>
+      <c r="D46" s="4" t="inlineStr">
+        <is>
+          <t>No wonder! If he ate such delicious scallops... in his original world, where there was no substance, he wouldn't be satisfied even if he ate a million of them!</t>
+        </is>
+      </c>
+      <c r="Z46" s="4" t="n">
+        <v>35759</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" s="4" t="inlineStr">
+        <is>
+          <t>アルティナ</t>
+        </is>
+      </c>
+      <c r="C47" s="4" t="inlineStr">
+        <is>
+          <t>……でしたら、あなたの世界からホタポタを 魔界に持ってきて、食べればいいのでは？ そうすれば、実体で味わえ───</t>
+        </is>
+      </c>
+      <c r="D47" s="4" t="inlineStr">
+        <is>
+          <t>...If that's the case, why not just bring some hotapota from your world to the demon world and eat it? That way, you can experience it in real life───</t>
+        </is>
+      </c>
+      <c r="Z47" s="4" t="n">
+        <v>35760</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" s="4" t="inlineStr">
+        <is>
+          <t>ギグ</t>
+        </is>
+      </c>
+      <c r="C48" s="4" t="inlineStr">
+        <is>
+          <t>───その手があったか！ テメェ、なかなか頭が回るじゃねぇか！</t>
+        </is>
+      </c>
+      <c r="D48" s="4" t="inlineStr">
+        <is>
+          <t>────You had that hand! Teme, you're quite quick-witted!</t>
+        </is>
+      </c>
+      <c r="Z48" s="4" t="n">
+        <v>35761</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" s="4" t="inlineStr">
+        <is>
+          <t>アルティナ</t>
+        </is>
+      </c>
+      <c r="C49" s="4" t="inlineStr">
+        <is>
+          <t>ど、どうも……。</t>
+        </is>
+      </c>
+      <c r="D49" s="4" t="inlineStr">
+        <is>
+          <t>H-hello....</t>
+        </is>
+      </c>
+      <c r="Z49" s="4" t="n">
+        <v>35762</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" s="4" t="inlineStr">
+        <is>
+          <t>ギグ</t>
+        </is>
+      </c>
+      <c r="C50" s="4" t="inlineStr">
+        <is>
+          <t>よし！　決めたぜ！　 この世界はオレがホタポタを食べるために、 壊さないでおいてやる！　感謝するんだな！</t>
+        </is>
+      </c>
+      <c r="D50" s="4" t="inlineStr">
+        <is>
+          <t>Okay! I decided! I will leave this world unbroken so that I can eat the scallops!　Thank you!</t>
+        </is>
+      </c>
+      <c r="Z50" s="4" t="n">
+        <v>35763</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" s="4" t="inlineStr">
+        <is>
+          <t>エトナ</t>
+        </is>
+      </c>
+      <c r="C51" s="4" t="inlineStr">
+        <is>
+          <t>あんた、魔界を壊すつもりだったの？ ……もしかしてあたしたち、 知らないうちに、魔界を救ってた？</t>
+        </is>
+      </c>
+      <c r="D51" s="4" t="inlineStr">
+        <is>
+          <t>Were you planning on destroying the demon world? ...Could it be that we were saving the demon world without even knowing it?</t>
+        </is>
+      </c>
+      <c r="Z51" s="4" t="n">
+        <v>35764</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" s="4" t="inlineStr">
+        <is>
+          <t>ギグ</t>
+        </is>
+      </c>
+      <c r="C52" s="4" t="inlineStr">
+        <is>
+          <t>それじゃ、ホタポタを手に入れたら また来てやるぜ！ じゃあなっ！　バイビー！！</t>
+        </is>
+      </c>
+      <c r="D52" s="4" t="inlineStr">
+        <is>
+          <t>Well then, I'll come back when I get my hands on Hotapota! See you then! Bybee! !</t>
+        </is>
+      </c>
+      <c r="Z52" s="4" t="n">
+        <v>35765</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" s="4" t="inlineStr">
+        <is>
+          <t>エトナ</t>
+        </is>
+      </c>
+      <c r="C53" s="4" t="inlineStr">
+        <is>
+          <t>……消えた。 なんていうか、殿下と同じくらい 自分勝手なやつだったわね。</t>
+        </is>
+      </c>
+      <c r="D53" s="4" t="inlineStr">
+        <is>
+          <t>……Had disappeared. In other words, he was just as selfish as His Highness.</t>
+        </is>
+      </c>
+      <c r="Z53" s="4" t="n">
+        <v>35766</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" s="4" t="inlineStr">
+        <is>
+          <t>アルティナ</t>
+        </is>
+      </c>
+      <c r="C54" s="4" t="inlineStr">
+        <is>
+          <t>ええ。 確かに自分勝手で危ない人ですけど……。 でも、ちょっと憎めない方でした。</t>
+        </is>
+      </c>
+      <c r="D54" s="4" t="inlineStr">
+        <is>
+          <t>Yeah. He is certainly a selfish and dangerous person... But he was kind of hard to hate.</t>
+        </is>
+      </c>
+      <c r="Z54" s="4" t="n">
+        <v>35767</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="4" t="inlineStr">
+        <is>
+          <t>プラム</t>
+        </is>
+      </c>
+      <c r="C55" s="4" t="inlineStr">
+        <is>
+          <t>……さてと、魔神の爪もいただいたし、 私も帰らせてもらうわ。 さようなら、エトナ。</t>
+        </is>
+      </c>
+      <c r="D55" s="4" t="inlineStr">
+        <is>
+          <t>...Well, now that I've received the devil's claw, I'll be able to go home as well. Goodbye, Etna.</t>
+        </is>
+      </c>
+      <c r="Z55" s="4" t="n">
+        <v>35768</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" s="4" t="inlineStr">
+        <is>
+          <t>エトナ</t>
+        </is>
+      </c>
+      <c r="C56" s="4" t="inlineStr">
+        <is>
+          <t>さっさと帰れ、怪しい女。</t>
+        </is>
+      </c>
+      <c r="D56" s="4" t="inlineStr">
+        <is>
+          <t>Go home now, you suspicious woman.</t>
+        </is>
+      </c>
+      <c r="Z56" s="4" t="n">
+        <v>35769</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" s="4" t="inlineStr">
+        <is>
+          <t>アルティナ</t>
+        </is>
+      </c>
+      <c r="C57" s="4" t="inlineStr">
+        <is>
+          <t>……そういえば、プラムさんは エトナさんの爪をもらって、 何に使うんでしょう？</t>
+        </is>
+      </c>
+      <c r="D57" s="4" t="inlineStr">
+        <is>
+          <t>...Now that I think about it, what will Plum-san use Etna's nails for?</t>
+        </is>
+      </c>
+      <c r="Z57" s="4" t="n">
+        <v>35770</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" s="4" t="inlineStr">
+        <is>
+          <t>エトナ</t>
+        </is>
+      </c>
+      <c r="C58" s="4" t="inlineStr">
+        <is>
+          <t>さあねー。 でも、何に使うにしても、 上手くいかないわよ。</t>
+        </is>
+      </c>
+      <c r="D58" s="4" t="inlineStr">
+        <is>
+          <t>Come on. But no matter what you use it for, it won't work.</t>
+        </is>
+      </c>
+      <c r="Z58" s="4" t="n">
+        <v>35771</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" s="4" t="inlineStr">
+        <is>
+          <t>アルティナ</t>
+        </is>
+      </c>
+      <c r="C59" s="4" t="inlineStr">
+        <is>
+          <t>え？　どうしてですか？</t>
+        </is>
+      </c>
+      <c r="D59" s="4" t="inlineStr">
+        <is>
+          <t>picture? Why?</t>
+        </is>
+      </c>
+      <c r="Z59" s="4" t="n">
+        <v>35772</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" s="4" t="inlineStr">
+        <is>
+          <t>エトナ</t>
+        </is>
+      </c>
+      <c r="C60" s="4" t="inlineStr">
+        <is>
+          <t>だって、アイツに渡したの、 あたしの爪じゃなくて、 通販で買った『小悪魔の付け爪』だもん♥</t>
+        </is>
+      </c>
+      <c r="D60" s="4" t="inlineStr">
+        <is>
+          <t>After all, it wasn't my nails that I gave him, but the "little devil's fake nails" that I bought online ♥</t>
+        </is>
+      </c>
+      <c r="Z60" s="4" t="n">
+        <v>35773</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Z67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Name (JP)</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>JP</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Google translate</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Name (Manual)</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Manual translation</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Dialogue ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Scene 1:</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>prologue: 最凶のチョコを求めての巻</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>prologue: In search of the most evil chocolate</t>
+        </is>
+      </c>
+      <c r="Z3" t="n">
+        <v>158811</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>text:</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>メロディア</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ラズベリル先生ーーー！！ もう一度、ワタクシたちに チョコ作りを教えてちょうだい！！</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Mr. Raspberyl! ! Please teach us how to make chocolate again! !</t>
+        </is>
+      </c>
+      <c r="Z4" t="n">
+        <v>42039</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ラズベリル</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>アンタたち、そんなに慌てて どうしたんだい？ チョコなら、もう渡しただろ？</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>You guys, what are you doing in such a hurry? If it was chocolate, you already gave it to him, right?</t>
+        </is>
+      </c>
+      <c r="Z5" t="n">
+        <v>42040</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>アルティナ</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>吸血鬼さんたちに 迷惑をかけたお詫びとして、 チョコを贈りなおしたいのですわ。</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>As an apology for causing trouble to the vampires, I would like to give them chocolates again.</t>
+        </is>
+      </c>
+      <c r="Z6" t="n">
+        <v>42041</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ラズベリル</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>なるほど、アンタたちの気持ちはわかった！ それじゃあ、第２回『ラズベリル先生の 愛羅武勇、チョコ作り凶室』を始めるよ！</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>I see, I understand how you guys feel! Well then, let's start the second episode, ``Raspberyl Sensei's Aira Buyu, Chocolate Making Secret Room''!</t>
+        </is>
+      </c>
+      <c r="Z7" t="n">
+        <v>42042</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="Z8" t="n">
+        <v>42043</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ラズベリル</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>これから教えるのは、チョコ作りの３箇条！ １つ目は『自給自足』だよ！ 材料は己の力で手に入れるんだ！</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>What I'm going to teach you are three rules for making chocolate! The first one is "self-sufficiency"! Get the materials yourself!</t>
+        </is>
+      </c>
+      <c r="Z9" t="n">
+        <v>42044</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>セラフィーヌ</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>それなら問題ありませんわ。 すでに最高級の禍荷汚などの材料に加えて、 それぞれの隠し味も用意してありますもの！</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>There's no problem then. In addition to the top-quality ingredients such as Makugo Shitsu, we also have secret ingredients for each!</t>
+        </is>
+      </c>
+      <c r="Z10" t="n">
+        <v>42045</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ラズベリル</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>禍荷汚とは、いいセンスだね。 準備ができてるなら、調理に移るよ。 ３箇条の２つ目は、『風林火山』だ！</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>It's a good sense to be dirty. If you're ready, let's start cooking. The second of the three clauses is “Furinkazan”!</t>
+        </is>
+      </c>
+      <c r="Z11" t="n">
+        <v>42046</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ラズベリル</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>まずは禍荷汚の風味が逃げないよう、 材料を風のように早く混ぜ合わせるのさ！ アンタたちの気合いを見せてみな！</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>First of all, mix the ingredients together as quickly as the wind so that the flavor of the misfortune doesn't escape! Show us your spirit!</t>
+        </is>
+      </c>
+      <c r="Z12" t="n">
+        <v>42047</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>三人</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　　　　　 押忍っ！ 　　愛！　羅武！　勇ッ！！</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Osu!  Love! Luo Wu! Brave! !</t>
+        </is>
+      </c>
+      <c r="Z13" t="n">
+        <v>42048</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ラズベリル</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>混ぜ終えたら、次は『風林火山』の火！ 禍荷汚の味を際立たせるために、 １０００万度のマグマで、湯煎するよ！</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>After mixing, next is the “Furinkazan” fire! In order to bring out the flavor of the magma, we will boil it in hot water at 10 million degrees of magma!</t>
+        </is>
+      </c>
+      <c r="Z14" t="n">
+        <v>42049</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>アルティナ</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>い、１０００万度！？ チョコではなく、わたくしたちのほうが 溶けてしまいませんか！？</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Yes, 10 million degrees! ? Don't we melt, not the chocolate? ?</t>
+        </is>
+      </c>
+      <c r="Z15" t="n">
+        <v>42050</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ラズベリル</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大丈夫さ。アンタたちの想いは、 そんじょそこらのマグマより、ずっと熱い！ 愛の力で耐えきるんだ！</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>It's okay. Your feelings are much hotter than most magma! I can endure it with the power of love!</t>
+        </is>
+      </c>
+      <c r="Z16" t="n">
+        <v>42051</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="Z17" t="n">
+        <v>42052</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>メロディア</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>……な、なんとか湯煎できたわ……！　 あとは型に注いで冷やすだけよね？　 ラララ～♪　これで完成ね～♪</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>...I managed to boil it in hot water...! All that's left to do is pour it into molds and let it cool, right? Lalala~♪ It's now complete~♪</t>
+        </is>
+      </c>
+      <c r="Z18" t="n">
+        <v>42053</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ラズベリル</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>待ちな。チョコ作りに油断は禁物！ 型へ注ぐときこそ、『風林火山』の林！ 空気が入らないよう、静かに注ぐのさ！</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Don't wait. Don't be careless when making chocolate! When you pour it into the mold, it's time for the forest of "Furinkazan"! Pour gently to avoid air bubbles!</t>
+        </is>
+      </c>
+      <c r="Z19" t="n">
+        <v>42054</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>メロディア</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>な、なるほど……！ 静かに……そ～っと……よし、できたわ！</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>I see…! Quietly...just...alright, it's done!</t>
+        </is>
+      </c>
+      <c r="Z20" t="n">
+        <v>42055</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ラズベリル</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>アンタたち、ここまでよく耐えたね。 あとは冷蔵庫でじっくり冷やして、 固まるのを待つだけだよ！</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>You guys have held up well so far. All you have to do is chill it in the refrigerator and wait for it to harden!</t>
+        </is>
+      </c>
+      <c r="Z21" t="n">
+        <v>42056</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>セラフィーヌ</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>むむむ……この待ち時間が もどかしいですわ……。テラクールで 一気に冷やしてもよろしくて？</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Hmm...this waiting time is frustrating... Is it okay if I cool it all at once with Terra Cool?</t>
+        </is>
+      </c>
+      <c r="Z22" t="n">
+        <v>42057</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ラズベリル</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>焦るんじゃないよ、セラフィーヌ。 冷やす工程こそ、『風林火山』の山！ 山のごとく、完成までじっと待つんだ！</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Don't panic, Seraphine. The cooling process is the essence of “Furinkazan”! Just wait patiently until it's completed!</t>
+        </is>
+      </c>
+      <c r="Z23" t="n">
+        <v>42058</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ラズベリル</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>───……ただ、今回ばかりは、 待っている間にやるべきことがあるけどね。</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>────...But this time, I have something to do while I'm waiting.</t>
+        </is>
+      </c>
+      <c r="Z24" t="n">
+        <v>42059</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>メロディア</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>ラッピングとかかしら？ それなら、ちゃんと用意して……。</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Maybe wrapping? If so, prepare properly...</t>
+        </is>
+      </c>
+      <c r="Z25" t="n">
+        <v>42060</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ラズベリル</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>いいや、そんな甘いもんじゃないよ。 ３箇条の最後のひとつ！　『弱肉拒食』！ 互いのチョコを壊し合うバトルロイヤルさ！</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>No, it's not that sweet. The last of the three points! "Weak meat refusal"! A battle royale where you destroy each other's chocolates!</t>
+        </is>
+      </c>
+      <c r="Z26" t="n">
+        <v>42061</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>アルティナ</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>バトルロイヤル！？　 どうして、せっかく作ったチョコを、 壊し合わなくてはなりませんの！？</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Battle royale! ?　Why do we have to destroy the chocolates we've made so much! ?</t>
+        </is>
+      </c>
+      <c r="Z27" t="n">
+        <v>42062</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ラズベリル</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>最凶のチョコを完成させるためには、 自分以外のチョコを破壊する工程が、 絶対に必要なんだよ！　さぁ、戦いな！</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>In order to complete the most evil chocolate, the process of destroying other chocolates is absolutely necessary! Now, let's fight!</t>
+        </is>
+      </c>
+      <c r="Z28" t="n">
+        <v>42063</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>メロディア</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嫌よ！　みんなでチョコを作りたくて 集まったのに……！　ひとりでも欠けたら、 ハッピーエンドじゃなくなるわ！</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>I don't like it! We all came together because we wanted to make chocolate together...! If even one person is missing, it won't be a happy ending!</t>
+        </is>
+      </c>
+      <c r="Z29" t="n">
+        <v>42064</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ラズベリル</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>……そう言うと思ったよ。 だったら、チョコを守るために、 アタイを倒してみな！</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>...That's what I thought you'd say. Then, to protect Choco, try defeating Atai!</t>
+        </is>
+      </c>
+      <c r="Z30" t="n">
+        <v>42065</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Scene 2:</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>ending: ４つ目のチョコの巻</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>ending: The fourth chocolate roll</t>
+        </is>
+      </c>
+      <c r="Z32" t="n">
+        <v>158812</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>text:</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>セラフィーヌ</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>……ハァ、ハァ。 こ、これで約束通り、ワタクシたちの チョコは壊させませんわ！</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>...Ha, ha. Now, as promised, I won't let you destroy his chocolate!</t>
+        </is>
+      </c>
+      <c r="Z33" t="n">
+        <v>42066</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>メロディア</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>でも、どうして『弱肉拒食』なんて、 言い出したの？　無理矢理戦わせるなんて、 あなたらしくないわ。</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>But why did you say ``weak meat rejection''? It's not like you to force someone to fight.</t>
+        </is>
+      </c>
+      <c r="Z34" t="n">
+        <v>42067</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>アルティナ</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>確かに、チョコを一緒に作ってる最中は、 あんなに楽しそうでしたのに、なぜ……？</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>It's true that they seemed to be having so much fun making chocolate together, but why...?</t>
+        </is>
+      </c>
+      <c r="Z35" t="n">
+        <v>42068</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ラズベリル</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>フッ……それはね、 アンタたちのチョコを、 最凶のチョコにするためだよ。</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Huh...that's to make your chocolate the most evil one.</t>
+        </is>
+      </c>
+      <c r="Z36" t="n">
+        <v>42069</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>セラフィーヌ</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>……最凶のチョコ？</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>...The worst chocolate?</t>
+        </is>
+      </c>
+      <c r="Z37" t="n">
+        <v>42070</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ラズベリル</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>チョコに愛と気合を１億％込めるためには、 そのチョコへの思い入れが必要なんだ。 例えば、敵から全力で守り抜いたり、ね。</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>In order to put 100,000,000% of your love and spirit into chocolate, you need to have a lot of love for it. For example, trying to protect yourself from enemies with all your might.</t>
+        </is>
+      </c>
+      <c r="Z38" t="n">
+        <v>42071</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>メロディア</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>つ、つまり……ワタクシたちのチョコを 最凶のチョコにするために、わざと自分から 『弱肉拒食』なんてことを……！？</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Well, in other words...in order to make our chocolate the worst, I purposely ``rejected the weaklings''...! ?</t>
+        </is>
+      </c>
+      <c r="Z39" t="n">
+        <v>42072</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ラズベリル</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>『魔王像造って魂入れず』って言うだろ？ ただ作るだけで、満足しちゃだめなのさ。 チョコにも魂が入ってなきゃ、意味がない。</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>They say, ``Making a statue of the Demon King doesn't involve putting a soul in it,'' right? Don't be satisfied with just making it. Chocolate has no meaning unless it has a soul in it.</t>
+        </is>
+      </c>
+      <c r="Z40" t="n">
+        <v>42073</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ラズベリル</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>全力で作り、全力で守り抜き、 全力で想いを込める……！ そうして初めて、チョコにも魂が宿るんだ！</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Create it with all your might, protect it with all your might, put your heart and soul into it...! Only then can chocolate have a soul!</t>
+        </is>
+      </c>
+      <c r="Z41" t="n">
+        <v>42074</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>アルティナ</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>なんて素敵なお考え……。 本当に、ラズベリル先生には 教わってばかりですわね。</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>What a wonderful idea.... I've really learned a lot from Mr. Raspberyl.</t>
+        </is>
+      </c>
+      <c r="Z42" t="n">
+        <v>42075</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>セラフィーヌ</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>えぇ、さすがはワタクシたちの先生ですわ。 例のモノをお贈りするのに、 相応しいお方ですわね。</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Well, as expected of my teacher. You are the perfect person to gift this item to.</t>
+        </is>
+      </c>
+      <c r="Z43" t="n">
+        <v>42076</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ラズベリル</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>例のモノ……？　なんだい、 アタイに秘密にしてたことでもあるのかい？</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>An example thing...? What, are you keeping it a secret from Atai?</t>
+        </is>
+      </c>
+      <c r="Z44" t="n">
+        <v>42077</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>メロディア</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>ワタクシたちが、冷蔵庫のチョコを 全力で守ったのは、 ゼット様たちのためだけじゃないの。</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>The reason we did our best to protect the chocolate in the refrigerator wasn't just for Zett and the others.</t>
+        </is>
+      </c>
+      <c r="Z45" t="n">
+        <v>42078</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>アルティナ</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>そろそろ、チョコも固まったでしょうし、 冷蔵庫を開けてみてください。 ラズベリル先生。</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>The chocolate will have hardened by now, so open the refrigerator. Mr. Raspberyl.</t>
+        </is>
+      </c>
+      <c r="Z46" t="n">
+        <v>42079</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ラズベリル</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>……そんなこと言ったって、 この中には、アンタたちの作ったチョコが ３つあるだけで……あれ？</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>...Even if I say that, there are only three chocolates you made in here...huh?</t>
+        </is>
+      </c>
+      <c r="Z47" t="n">
+        <v>42080</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ラズベリル</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>チョコが……４つもあるよ！？ どういうことだい！？</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>There are four chocolates! ? What do you mean! ?</t>
+        </is>
+      </c>
+      <c r="Z48" t="n">
+        <v>42081</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>セラフィーヌ</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>オホホホホホ！ ４つ目のチョコは、みんなで作っておいた ラズベリル先生宛てのチョコですわ！</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Ohohohohoho! The fourth chocolate is the chocolate we all made for her, Ms. Raspberyl!</t>
+        </is>
+      </c>
+      <c r="Z49" t="n">
+        <v>42082</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>メロディア</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>ラララ♪ お世話になったラズベリル先生にも、 感謝の想いを伝えたかったの～♪</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Lalala♪ I also wanted to express my gratitude to Mr. Raspberyl who took care of me♪</t>
+        </is>
+      </c>
+      <c r="Z50" t="n">
+        <v>42083</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ラズベリル</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>こんな不意打ちを用意していたなんて……。 くぅ……！　なんて、 不良（ワル）な教え子たちなんだい！</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>I can't believe I prepared for such a surprise attack... Kuuu...! What a bunch of bad students!</t>
+        </is>
+      </c>
+      <c r="Z51" t="n">
+        <v>42084</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>アルティナ</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>ふふ、わたくしたちは、最高の不良凶師に 教えてもらっているんですもの。 この程度のサプライズ、わけありません。</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Hehe, we are being taught by the best delinquents. There's no reason for this level of surprise.</t>
+        </is>
+      </c>
+      <c r="Z52" t="n">
+        <v>42085</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>メロディア</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>もう冷えて固まってるでしょうし、 さっそく食べてみて、ラズベリル先生！</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>It's probably already cold and solidified, so let's try it right away, Mr. Raspberyl!</t>
+        </is>
+      </c>
+      <c r="Z53" t="n">
+        <v>42086</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ラズベリル</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>……ぐすっ！　ああ！ アンタたちの熱い気持ち、 ありがたくいただくよ！</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>...Guss! ah! I appreciate your passion!</t>
+        </is>
+      </c>
+      <c r="Z54" t="n">
+        <v>42087</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ラズベリル</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>───あむっ！　……ん？</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>────Amu! ……yeah?</t>
+        </is>
+      </c>
+      <c r="Z55" t="n">
+        <v>42088</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>セラフィーヌ</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>ワタクシたちの想いをた～っぷり込めた、 チョコのお味はいかがですの？</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>How about a chocolate flavor filled with our thoughts?</t>
+        </is>
+      </c>
+      <c r="Z56" t="n">
+        <v>42089</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ラズベリル</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>いや、なんだか、妙な味が……。 アンタたち、このチョコに 何を入れたんだい？</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>No, it tastes kind of strange... Guys, what did you put in this chocolate?</t>
+        </is>
+      </c>
+      <c r="Z57" t="n">
+        <v>42090</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>セラフィーヌ</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>ワタクシはキリア様が喜ぶように、 最高級食材の禍荷汚と カレー粉を入れましたわ！</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>To make Kiria-sama happy, I added the highest-quality ingredients, Mafugoji and curry powder!</t>
+        </is>
+      </c>
+      <c r="Z58" t="n">
+        <v>42091</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>アルティナ</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>わたくしは、吸血鬼さんが喜ぶように 新鮮なイワシをミンチにして 混ぜ込んでみましたの。</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>I minced fresh sardines and mixed them in to make the vampire happy.</t>
+        </is>
+      </c>
+      <c r="Z59" t="n">
+        <v>42092</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>メロディア</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>ワタクシはゼット様が喜ぶように、 彼の好きなウマの〇〇───</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>To make Zed-sama happy, I will choose his favorite horse 〇〇───</t>
+        </is>
+      </c>
+      <c r="Z60" t="n">
+        <v>42093</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ラズベリル</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>───なんてもんを入れてるんだい！？ ただ想いを込めれば いいってもんじゃないんだよ！？</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>────What kind of things are you putting in there? ? If you just have feelings for her, she's not a good person! ?</t>
+        </is>
+      </c>
+      <c r="Z61" t="n">
+        <v>42094</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>ラズベリル</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　　　 全員、作り直し！ 　  こっからは補習授業だ！ 　　　覚悟しなーーー！！</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Rebuild everyone! From now on, it's a supplementary lesson! Get ready! !</t>
+        </is>
+      </c>
+      <c r="Z62" t="n">
+        <v>42095</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="Z63" t="n">
+        <v>42096</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>恋愛細胞の騒動が解決し、 魔界中がバレンタインで盛り上がる一方、 邪悪学園の理事長室では―――</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>While the love cell turmoil is resolved and the entire demon world is excited about Valentine's Day, in the evil school's president's office...</t>
+        </is>
+      </c>
+      <c r="Z64" t="n">
+        <v>42097</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>マオ</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>フハハハハハ！　ようやく完成したぞ！ さぁ、『超魔熱血恋愛細胞ＭＫ３』の力で、 存分に愛の力を振りまくがいい！！</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Fuhahahahaha! It's finally completed! Now, use the power of ``Super Magic Hot-Blooded Love Cell MK3'' to spread the power of love to your heart's content! !</t>
+        </is>
+      </c>
+      <c r="Z65" t="n">
+        <v>42098</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>フロン</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>ありがとうございます、マオさん！ むふーっ！　私の真の愛で！ この世界を包み込んでみせますよぉー！！</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Thank you, Mao-san! Mmph! With my true love! I will envelop this world! !</t>
+        </is>
+      </c>
+      <c r="Z66" t="n">
+        <v>42099</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>まったく懲りないマオの手で、 新たな愛の火種が生み出されていた。 ―――続かない。</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>A new spark of love is being created by Mao's completely unrepentant hands. ---not continue.</t>
+        </is>
+      </c>
+      <c r="Z67" t="n">
+        <v>42100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr filterMode="0">
